--- a/biology/Botanique/Salix_repens/Salix_repens.xlsx
+++ b/biology/Botanique/Salix_repens/Salix_repens.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saule rampant
 Salix repens, le saule rampant (parfois nommé saule à feuilles étroites, saule argenté ou sauleron), est une espèce de plantes à fleurs de la famille des Salicaceae. C'est un très petit saule. Il ne doit pas être confondu avec Salix herbacea, une autre espèce de saule nain.
@@ -513,11 +525,13 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le saule rampant a une hauteur généralement comprise entre 30 cm et 1 m. 
 Ses tiges et rameaux sont plutôt dressés ou plus ou moins étalés ; les rameaux de l'année n-1 sont minces, glabres ou avec quelques poils épars. 
-Ses feuilles mesurent de 2 à 4 cm, sont alternes à limbe ovale, elliptique ou linéaire (2 à 4 fois plus long que large) ; leur face inférieure est soyeuse et argentée, faiblement nervée, tandis que leur face supérieure est plus ou moins glabre chez les feuilles adultes – les jeunes feuilles étant soyeuses sur les deux faces[1],[2].
+Ses feuilles mesurent de 2 à 4 cm, sont alternes à limbe ovale, elliptique ou linéaire (2 à 4 fois plus long que large) ; leur face inférieure est soyeuse et argentée, faiblement nervée, tandis que leur face supérieure est plus ou moins glabre chez les feuilles adultes – les jeunes feuilles étant soyeuses sur les deux faces,.
 </t>
         </is>
       </c>
@@ -546,7 +560,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le saule rampant fleurit en avril et/ou en mai. Sa pollinisation est anémogame. Ses inflorescences consistent en des épis simples de chatons ovales, relativement denses, mesurant à peu près 1,5 cm de longueur, ovoïdes ou oblongs, très brièvement pédonculés ; les chatons mâles sont à bractée velue et brune dans le haut, à 2 étamines libres et anthères jaunes ; les fleurs femelles ont un style court. 
 Ses fruits sont des capsules coniques, soyeuses ou glabres, avec un pédicelle plutôt allongé. 
@@ -582,7 +598,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbrisseau des dunes, landes humides et tourbières à sphaignes.
 On en trouve aussi localement dans les prairies humides acides de moyenne montagne et dans certaines zones paratourbeuses de plateaux, de 0 à 1 700 m d'altitude. Il est absent de la zone méditerranéenne et eurasiatique.
@@ -614,7 +632,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, le saule rampant est protégé par arrêté de protection dans les régions Bourgogne, Centre-Val de Loire et Île-de-France.
 </t>
